--- a/firebase_data_from_spyEnsembleVM.xlsx
+++ b/firebase_data_from_spyEnsembleVM.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944CCA18-7194-46A7-A0FA-1C3E4E5F14D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -718,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -787,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -810,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -833,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -856,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -925,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1178,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1592,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1661,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2759,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G103">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2851,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G107">
-        <v>0.4444444444444445</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="G117">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3104,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="G118">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3133,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3268,10 +3286,10 @@
         <v>0.5625</v>
       </c>
       <c r="G125">
-        <v>0.4374999999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>0.43749999999999978</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3311,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G127">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3334,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G128">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3383,10 +3401,10 @@
         <v>0.5625</v>
       </c>
       <c r="G130">
-        <v>0.4374999999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.43749999999999978</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3449,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G133">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3472,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0.5714285714285715</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G134">
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="G144">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="G145">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3840,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G150">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3886,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G152">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3915,7 +3933,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G155">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4030,7 +4048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4047,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G159">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4076,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G174">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4467,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4651,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4737,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G189">
-        <v>0.4444444444444445</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4829,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G193">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G196">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G197">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4967,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="G199">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4990,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G200">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G201">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G204">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5105,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G205">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5226,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5410,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5433,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5479,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5525,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5726,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G232">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5749,13 +5767,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G233">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5864,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G238">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5959,10 +5977,10 @@
         <v>0.5625</v>
       </c>
       <c r="G242">
-        <v>0.4374999999999998</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>0.43749999999999978</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6071,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G247">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6169,7 +6187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6186,13 +6204,13 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G252">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G253">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6232,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0.5714285714285715</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G254">
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G256">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6577,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G269">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6603,10 +6621,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="G270">
-        <v>0.5714285714285715</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6623,13 +6641,13 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="G271">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6646,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G272">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6669,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="G273">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6744,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6813,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7043,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7135,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7181,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>1</v>
       </c>
       <c r="F296">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G296">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7221,13 +7239,13 @@
         <v>1</v>
       </c>
       <c r="F297">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G297">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7477,10 +7495,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="G308">
-        <v>0.5714285714285715</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7543,13 +7561,13 @@
         <v>1</v>
       </c>
       <c r="F311">
-        <v>0.5714285714285715</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G311">
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7589,13 +7607,13 @@
         <v>1</v>
       </c>
       <c r="F313">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G313">
-        <v>0.3636363636363636</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>0.36363636363636359</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7750,13 +7768,13 @@
         <v>1</v>
       </c>
       <c r="F320">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G320">
-        <v>0.4444444444444445</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7796,13 +7814,13 @@
         <v>1</v>
       </c>
       <c r="F322">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G322">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7825,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7848,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7888,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="F326">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G326">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7940,7 +7958,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7983,10 +8001,10 @@
         <v>0.625</v>
       </c>
       <c r="G330">
-        <v>0.3749999999999998</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.37499999999999978</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8009,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8078,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8124,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8147,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8164,13 +8182,13 @@
         <v>0</v>
       </c>
       <c r="F338">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="G338">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>1</v>
       </c>
       <c r="F339">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="G339">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8216,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8285,7 +8303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8302,13 +8320,13 @@
         <v>1</v>
       </c>
       <c r="F344">
-        <v>0.4444444444444445</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="G344">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8325,13 +8343,13 @@
         <v>1</v>
       </c>
       <c r="F345">
-        <v>0.3749999999999998</v>
+        <v>0.37499999999999978</v>
       </c>
       <c r="G345">
         <v>0.625</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>1</v>
       </c>
       <c r="F346">
-        <v>0.2857142857142858</v>
+        <v>0.28571428571428581</v>
       </c>
       <c r="G346">
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8371,13 +8389,13 @@
         <v>1</v>
       </c>
       <c r="F347">
-        <v>0.2500000000000001</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="G347">
         <v>0.75</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8394,13 +8412,13 @@
         <v>0</v>
       </c>
       <c r="F348">
-        <v>0.2222222222222223</v>
+        <v>0.22222222222222229</v>
       </c>
       <c r="G348">
         <v>0.7777777777777779</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8423,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="F350">
-        <v>0.2500000000000001</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="G350">
         <v>0.75</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8463,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="F351">
-        <v>0.3333333333333334</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="G351">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8492,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8607,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8739,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G363">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>1</v>
       </c>
       <c r="F364">
-        <v>0.4374999999999998</v>
+        <v>0.43749999999999978</v>
       </c>
       <c r="G364">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8788,10 +8806,10 @@
         <v>0.5625</v>
       </c>
       <c r="G365">
-        <v>0.4374999999999998</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.43749999999999978</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8808,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="F366">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G366">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8837,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8854,13 +8872,13 @@
         <v>0</v>
       </c>
       <c r="F368">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G368">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8900,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="F370">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G370">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8929,7 +8947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8969,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G373">
-        <v>0.4444444444444445</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8998,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9061,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="F377">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G377">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>0</v>
       </c>
       <c r="F380">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G380">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9153,13 +9171,13 @@
         <v>1</v>
       </c>
       <c r="F381">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G381">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9182,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9199,13 +9217,13 @@
         <v>0</v>
       </c>
       <c r="F383">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G383">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9222,13 +9240,13 @@
         <v>1</v>
       </c>
       <c r="F384">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G384">
-        <v>0.4444444444444445</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9251,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9274,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9320,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9343,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="F391">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G391">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9412,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9435,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9527,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9544,13 +9562,13 @@
         <v>1</v>
       </c>
       <c r="F398">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="G398">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9567,13 +9585,13 @@
         <v>1</v>
       </c>
       <c r="F399">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G399">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9590,13 +9608,13 @@
         <v>0</v>
       </c>
       <c r="F400">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G400">
-        <v>0.3636363636363636</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.36363636363636359</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9619,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9665,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9705,13 +9723,13 @@
         <v>1</v>
       </c>
       <c r="F405">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G405">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9734,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9757,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9849,7 +9867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9872,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9895,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9918,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9941,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9981,13 +9999,13 @@
         <v>1</v>
       </c>
       <c r="F417">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G417">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10004,13 +10022,13 @@
         <v>1</v>
       </c>
       <c r="F418">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G418">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10033,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10050,13 +10068,13 @@
         <v>1</v>
       </c>
       <c r="F420">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="G420">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10079,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10102,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10125,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10217,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10263,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10286,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10303,13 +10321,13 @@
         <v>1</v>
       </c>
       <c r="F431">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G431">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10326,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="F432">
-        <v>0.5714285714285715</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G432">
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10355,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10378,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10395,13 +10413,13 @@
         <v>1</v>
       </c>
       <c r="F435">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G435">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10418,13 +10436,13 @@
         <v>1</v>
       </c>
       <c r="F436">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="G436">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10470,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10493,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10516,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10562,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10608,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10631,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10677,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10700,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10723,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10746,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10769,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10815,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10930,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10953,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10999,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11022,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11068,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11108,13 +11126,13 @@
         <v>0</v>
       </c>
       <c r="F466">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G466">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11137,7 +11155,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11160,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11183,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11206,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11229,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11252,7 +11270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11269,13 +11287,13 @@
         <v>1</v>
       </c>
       <c r="F473">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G473">
-        <v>0.4444444444444445</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11295,10 +11313,10 @@
         <v>0.625</v>
       </c>
       <c r="G474">
-        <v>0.3749999999999998</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
+        <v>0.37499999999999978</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11315,13 +11333,13 @@
         <v>1</v>
       </c>
       <c r="F475">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G475">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11344,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11436,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11505,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11528,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11551,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11574,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11597,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11620,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11643,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11666,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11712,12 +11730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>45792.47916666666</v>
+        <v>45792.479166666657</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -11735,12 +11753,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>45793.47916666666</v>
+        <v>45793.479166666657</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -11758,12 +11776,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>45796.47916666666</v>
+        <v>45796.479166666657</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -11781,12 +11799,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>45797.47916666666</v>
+        <v>45797.479166666657</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -11804,12 +11822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>45798.47916666666</v>
+        <v>45798.479166666657</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -11827,12 +11845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>45799.47916666666</v>
+        <v>45799.479166666657</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -11850,12 +11868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>45800.47916666666</v>
+        <v>45800.479166666657</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -11867,18 +11885,18 @@
         <v>1</v>
       </c>
       <c r="F499">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="G499">
-        <v>0.5455</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>45804.47916666666</v>
+        <v>45804.479166666657</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -11890,18 +11908,18 @@
         <v>1</v>
       </c>
       <c r="F500">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="G500">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>45805.47916666666</v>
+        <v>45805.479166666657</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -11919,12 +11937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>45806.47916666666</v>
+        <v>45806.479166666657</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -11942,12 +11960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>45807.47916666666</v>
+        <v>45807.479166666657</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -11965,12 +11983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>45810.47916666666</v>
+        <v>45810.479166666657</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -11988,12 +12006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -12011,12 +12029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -12034,12 +12052,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -12051,18 +12069,18 @@
         <v>0</v>
       </c>
       <c r="F507">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="G507">
-        <v>0.5455</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -12080,12 +12098,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -12103,12 +12121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -12126,12 +12144,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -12149,12 +12167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -12172,12 +12190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -12195,12 +12213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12218,12 +12236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12241,12 +12259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12264,12 +12282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12287,12 +12305,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12310,12 +12328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12333,12 +12351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12356,12 +12374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>1</v>

--- a/firebase_data_from_spyEnsembleVM.xlsx
+++ b/firebase_data_from_spyEnsembleVM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="591">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2138,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2190,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2216,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2242,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2268,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2294,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2320,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2372,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2450,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2476,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2502,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2528,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2554,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2580,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2632,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2658,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2684,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2736,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2762,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2788,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2814,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2866,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2892,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2918,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2944,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2970,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3022,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3048,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3074,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3100,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3126,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3152,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3178,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3204,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3230,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3256,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3282,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3308,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3334,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3360,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3386,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3412,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3438,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3464,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3490,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3516,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3542,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3568,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3594,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3620,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3646,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3672,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3698,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3724,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3750,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3776,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3828,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3854,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3880,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3906,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3932,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3958,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3984,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4010,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4036,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4062,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4114,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4140,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4166,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4192,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4218,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4244,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4270,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4296,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4322,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4348,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4374,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4400,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4426,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4452,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4478,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4504,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4530,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4556,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4582,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4608,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4634,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4660,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4686,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4712,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4738,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4764,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4790,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4816,7 +4822,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H103" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4842,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4868,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4894,7 +4900,7 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4920,7 +4926,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H107" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4946,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4972,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4998,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5024,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5050,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5076,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5102,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5128,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5154,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5180,7 +5186,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H117" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5206,7 +5212,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H118" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5232,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5258,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5284,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5310,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5336,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5362,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5388,7 +5394,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H125" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5414,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5440,7 +5446,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H127" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5466,7 +5472,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H128" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5492,7 +5498,7 @@
         <v>0.4</v>
       </c>
       <c r="H129" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5518,7 +5524,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H130" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5544,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5570,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5596,7 +5602,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H133" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5622,7 +5628,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H134" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5648,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5674,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5700,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5726,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5752,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5804,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5830,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5856,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5882,7 +5888,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H144" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5908,7 +5914,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H145" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5934,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5960,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5986,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6012,7 +6018,7 @@
         <v>0.5</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6038,7 +6044,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H150" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6064,7 +6070,7 @@
         <v>0.5</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6090,7 +6096,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H152" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6116,7 +6122,7 @@
         <v>0.4</v>
       </c>
       <c r="H153" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6142,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6168,7 +6174,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H155" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6194,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6220,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6246,7 +6252,7 @@
         <v>0.5</v>
       </c>
       <c r="H158" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6272,7 +6278,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H159" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6298,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6324,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6350,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6376,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6402,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6428,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6454,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6480,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6506,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6532,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6558,7 +6564,7 @@
         <v>0.5</v>
       </c>
       <c r="H170" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6584,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6610,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6636,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6662,7 +6668,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H174" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6688,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6714,7 +6720,7 @@
         <v>0.5</v>
       </c>
       <c r="H176" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6740,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6766,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6792,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6818,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6844,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6870,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6896,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6922,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6948,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6974,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7000,7 +7006,7 @@
         <v>0.5</v>
       </c>
       <c r="H187" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7026,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7052,7 +7058,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H189" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7078,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7104,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7130,7 +7136,7 @@
         <v>0.5</v>
       </c>
       <c r="H192" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7156,7 +7162,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H193" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7182,7 +7188,7 @@
         <v>0.5</v>
       </c>
       <c r="H194" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7208,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7234,7 +7240,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H196" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7260,7 +7266,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7286,7 +7292,7 @@
         <v>0.5</v>
       </c>
       <c r="H198" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7312,7 +7318,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H199" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7338,7 +7344,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H200" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7364,7 +7370,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7390,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7416,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7442,7 +7448,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H204" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7468,7 +7474,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H205" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7494,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7546,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7572,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7598,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7624,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7650,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7676,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7702,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7728,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7754,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7780,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7806,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7832,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7858,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7884,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7910,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7936,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7962,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7988,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8014,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8040,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8066,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8092,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8118,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8144,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8170,7 +8176,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8196,7 +8202,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H233" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8222,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8248,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8274,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8300,7 +8306,7 @@
         <v>0.5</v>
       </c>
       <c r="H237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8326,7 +8332,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H238" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8352,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8378,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8404,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8430,7 +8436,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H242" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8456,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8482,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8508,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8534,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8560,7 +8566,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H247" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8586,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8612,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8638,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8664,7 +8670,7 @@
         <v>0.5</v>
       </c>
       <c r="H251" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8690,7 +8696,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H252" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8716,7 +8722,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H253" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8742,7 +8748,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H254" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8768,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8794,7 +8800,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H256" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8820,7 +8826,7 @@
         <v>0.5</v>
       </c>
       <c r="H257" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8846,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8872,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8898,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8924,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8950,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8976,7 +8982,7 @@
         <v>0.5</v>
       </c>
       <c r="H263" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9002,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9028,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9054,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9080,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9106,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9132,7 +9138,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H269" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9158,7 +9164,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H270" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9184,7 +9190,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H271" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9210,7 +9216,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H272" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9236,7 +9242,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H273" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9262,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9288,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9314,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9340,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9366,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9392,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9418,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9444,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9470,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9496,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9522,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9548,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9574,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9600,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9626,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9652,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9678,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9704,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9730,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9756,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9834,7 +9840,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H296" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9860,7 +9866,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H297" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9886,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9912,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9938,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9964,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9990,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10016,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10042,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10068,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10094,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10120,7 +10126,7 @@
         <v>0.5</v>
       </c>
       <c r="H307" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10146,7 +10152,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H308" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10172,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10198,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10224,7 +10230,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H311" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10250,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10276,7 +10282,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H313" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10302,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10328,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10354,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10380,7 +10386,7 @@
         <v>0.3</v>
       </c>
       <c r="H317" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10406,7 +10412,7 @@
         <v>0.4</v>
       </c>
       <c r="H318" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10432,7 +10438,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10458,7 +10464,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H320" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10484,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10510,7 +10516,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H322" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10536,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10562,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10588,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10614,7 +10620,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10640,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10666,7 +10672,7 @@
         <v>0.4</v>
       </c>
       <c r="H328" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10692,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10718,7 +10724,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10744,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10770,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10796,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10822,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10848,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10874,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10900,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10926,7 +10932,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H338" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10952,7 +10958,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H339" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10978,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11004,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11030,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11056,7 +11062,7 @@
         <v>0.5</v>
       </c>
       <c r="H343" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11082,7 +11088,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H344" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11108,7 +11114,7 @@
         <v>0.625</v>
       </c>
       <c r="H345" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11134,7 +11140,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H346" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11160,7 +11166,7 @@
         <v>0.75</v>
       </c>
       <c r="H347" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11186,7 +11192,7 @@
         <v>0.7777777777777779</v>
       </c>
       <c r="H348" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11212,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11238,7 +11244,7 @@
         <v>0.75</v>
       </c>
       <c r="H350" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11264,7 +11270,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11290,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11316,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11342,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11368,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11394,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11420,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11446,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11472,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11498,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11524,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11550,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11576,7 +11582,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11602,7 +11608,7 @@
         <v>0.5625</v>
       </c>
       <c r="H364" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11628,7 +11634,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H365" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11654,7 +11660,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11680,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11706,7 +11712,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11732,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11758,7 +11764,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H370" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11784,7 +11790,7 @@
         <v>0.5</v>
       </c>
       <c r="H371" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11810,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11836,7 +11842,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H373" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11862,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11888,7 +11894,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11914,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11940,7 +11946,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H377" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11966,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11992,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12018,7 +12024,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H380" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12044,7 +12050,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H381" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12070,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12096,7 +12102,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H383" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12122,7 +12128,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H384" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12148,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12174,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12200,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12226,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12252,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12278,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12304,7 +12310,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H391" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12330,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12356,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12382,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12408,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12434,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12460,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12486,7 +12492,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H398" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12512,7 +12518,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12538,7 +12544,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H400" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12564,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12590,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12616,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12642,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12668,7 +12674,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H405" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12694,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12720,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12746,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12772,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12798,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12824,7 +12830,7 @@
         <v>0.5</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12850,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12876,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12902,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12928,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12954,7 +12960,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12980,7 +12986,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H417" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13006,7 +13012,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13032,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13058,7 +13064,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H420" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13084,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13110,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13136,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13162,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13188,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13214,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13240,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13266,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13292,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13318,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13344,7 +13350,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H431" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13370,7 +13376,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H432" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13396,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13422,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13448,7 +13454,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13474,7 +13480,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H436" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13500,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13526,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13552,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13578,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13604,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13630,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13656,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13682,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13708,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13734,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13760,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13786,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13812,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13838,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13864,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13890,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13916,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13942,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13968,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13994,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14020,7 +14026,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14046,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14072,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14098,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14124,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14150,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14176,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14202,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14228,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14254,7 +14260,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H466" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14280,7 +14286,7 @@
         <v>0.5</v>
       </c>
       <c r="H467" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14306,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14332,7 +14338,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14358,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14384,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14410,7 +14416,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14436,7 +14442,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H473" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14462,7 +14468,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H474" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14488,7 +14494,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H475" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14514,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14540,7 +14546,7 @@
         <v>0.3</v>
       </c>
       <c r="H477" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14566,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14592,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14618,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14644,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14670,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14696,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14722,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14748,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14774,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14800,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14826,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14852,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14878,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14904,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14930,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14956,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14982,7 +14988,7 @@
         <v>0.5</v>
       </c>
       <c r="H494" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15008,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15034,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15060,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15086,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15112,7 +15118,7 @@
         <v>0.5455</v>
       </c>
       <c r="H499" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15138,7 +15144,7 @@
         <v>0.5833</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15164,7 +15170,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15190,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15216,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15242,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15268,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15294,7 +15300,7 @@
         <v>0.6</v>
       </c>
       <c r="H506" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15320,7 +15326,7 @@
         <v>0.5455</v>
       </c>
       <c r="H507" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15346,7 +15352,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15372,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15398,7 +15404,7 @@
         <v>0.5</v>
       </c>
       <c r="H510" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15424,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15450,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15476,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15502,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15528,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15554,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15580,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15606,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15632,7 +15638,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15658,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15684,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15710,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15736,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15762,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15788,7 +15794,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15814,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15840,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15866,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15892,7 +15898,7 @@
         <v>0.5385</v>
       </c>
       <c r="H529" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15918,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15944,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15970,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15996,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16022,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16048,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16074,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16100,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16126,7 +16132,7 @@
         <v>0.5455</v>
       </c>
       <c r="H538" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16152,7 +16158,7 @@
         <v>0.5</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16178,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16204,7 +16210,7 @@
         <v>0.5</v>
       </c>
       <c r="H541" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16230,7 +16236,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16256,7 +16262,7 @@
         <v>0.5714</v>
       </c>
       <c r="H543" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16282,7 +16288,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16308,7 +16314,7 @@
         <v>0.4286</v>
       </c>
       <c r="H545" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16334,7 +16340,7 @@
         <v>0.3333</v>
       </c>
       <c r="H546" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16360,7 +16366,7 @@
         <v>0.2857</v>
       </c>
       <c r="H547" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16386,7 +16392,7 @@
         <v>0.375</v>
       </c>
       <c r="H548" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16412,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16438,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16464,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16490,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16516,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16542,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16568,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16594,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16620,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16646,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16672,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16698,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16724,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16734,9 +16740,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -16744,7 +16756,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVM.xlsx
+++ b/firebase_data_from_spyEnsembleVM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="593">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2144,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2196,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2222,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2248,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2274,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2300,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2326,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2352,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2378,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2404,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2430,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2456,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2482,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2508,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2534,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2560,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2612,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2638,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2664,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2690,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2716,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2742,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2768,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2794,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2820,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2846,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2872,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2898,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2924,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2976,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3002,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3028,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3054,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3080,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3106,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3132,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3158,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3184,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3210,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3236,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3262,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3288,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3314,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3340,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3366,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3392,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3418,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3444,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3470,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3496,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3522,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3548,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3574,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3600,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3626,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3652,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3678,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3730,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3756,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3782,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3808,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3834,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3860,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3886,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3912,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3938,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3964,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3990,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4016,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4042,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4068,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4094,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4120,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4146,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4172,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4198,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4224,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4250,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4276,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4302,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4328,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4354,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4380,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4406,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4432,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4458,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4484,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4510,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4536,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4562,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4588,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4614,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4640,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4666,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4692,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4718,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4744,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4770,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4796,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4822,7 +4828,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H103" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4848,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4874,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4900,7 +4906,7 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4926,7 +4932,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H107" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4952,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4978,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5004,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5030,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5056,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5082,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5108,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5134,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5160,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5186,7 +5192,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H117" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5212,7 +5218,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H118" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5238,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5264,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5290,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5316,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5368,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5394,7 +5400,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H125" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5420,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5446,7 +5452,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H127" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5472,7 +5478,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H128" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5498,7 +5504,7 @@
         <v>0.4</v>
       </c>
       <c r="H129" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5524,7 +5530,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H130" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5550,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5576,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5602,7 +5608,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H133" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5628,7 +5634,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5654,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5680,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5706,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5732,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5758,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5784,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5810,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5836,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5862,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5888,7 +5894,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H144" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5914,7 +5920,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H145" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5940,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5966,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5992,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6018,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6044,7 +6050,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H150" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6070,7 +6076,7 @@
         <v>0.5</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6096,7 +6102,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H152" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6122,7 +6128,7 @@
         <v>0.4</v>
       </c>
       <c r="H153" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6148,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6174,7 +6180,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H155" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6200,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6226,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6252,7 +6258,7 @@
         <v>0.5</v>
       </c>
       <c r="H158" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6278,7 +6284,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H159" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6304,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6330,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6356,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6382,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6408,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6434,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6460,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6486,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6512,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6538,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6564,7 +6570,7 @@
         <v>0.5</v>
       </c>
       <c r="H170" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6590,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6616,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6642,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6668,7 +6674,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H174" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6694,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6720,7 +6726,7 @@
         <v>0.5</v>
       </c>
       <c r="H176" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6746,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6772,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6798,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6824,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6850,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6876,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6902,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6928,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6954,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6980,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7006,7 +7012,7 @@
         <v>0.5</v>
       </c>
       <c r="H187" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7032,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7058,7 +7064,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H189" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7084,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7110,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7136,7 +7142,7 @@
         <v>0.5</v>
       </c>
       <c r="H192" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7162,7 +7168,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H193" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7188,7 +7194,7 @@
         <v>0.5</v>
       </c>
       <c r="H194" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7214,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7240,7 +7246,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H196" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7266,7 +7272,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7292,7 +7298,7 @@
         <v>0.5</v>
       </c>
       <c r="H198" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7318,7 +7324,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H199" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7344,7 +7350,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H200" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7370,7 +7376,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H201" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7396,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7422,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7448,7 +7454,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H204" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7474,7 +7480,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H205" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7500,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7526,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7552,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7578,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7604,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7630,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7656,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7682,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7708,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7734,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7760,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7786,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7812,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7838,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7864,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7890,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7916,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7942,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7968,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7994,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8020,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8046,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8072,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8098,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8124,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8150,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8176,7 +8182,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H232" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8202,7 +8208,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H233" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8228,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8254,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8280,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8306,7 +8312,7 @@
         <v>0.5</v>
       </c>
       <c r="H237" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8332,7 +8338,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H238" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8358,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8384,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8410,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8436,7 +8442,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H242" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8462,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8488,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8514,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8540,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8566,7 +8572,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H247" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8592,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8618,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8670,7 +8676,7 @@
         <v>0.5</v>
       </c>
       <c r="H251" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8696,7 +8702,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H252" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8722,7 +8728,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H253" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8748,7 +8754,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H254" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8774,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8800,7 +8806,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H256" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8826,7 +8832,7 @@
         <v>0.5</v>
       </c>
       <c r="H257" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8852,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8878,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8904,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8930,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8956,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8982,7 +8988,7 @@
         <v>0.5</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9008,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9034,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9060,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9086,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9112,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9138,7 +9144,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H269" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9164,7 +9170,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H270" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9190,7 +9196,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H271" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9216,7 +9222,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H272" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9242,7 +9248,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H273" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9268,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9294,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9320,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9346,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9372,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9398,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9424,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9450,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9476,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9502,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9528,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9554,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9580,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9606,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9632,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9658,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9684,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9710,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9736,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9762,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9788,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9814,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9840,7 +9846,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H296" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9866,7 +9872,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H297" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9892,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9918,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9944,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9970,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9996,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10022,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10048,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10074,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10100,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10126,7 +10132,7 @@
         <v>0.5</v>
       </c>
       <c r="H307" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10152,7 +10158,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H308" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10178,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10204,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10230,7 +10236,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10256,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10282,7 +10288,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H313" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10308,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10334,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10360,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10386,7 +10392,7 @@
         <v>0.3</v>
       </c>
       <c r="H317" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10412,7 +10418,7 @@
         <v>0.4</v>
       </c>
       <c r="H318" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10438,7 +10444,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10464,7 +10470,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H320" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10490,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10516,7 +10522,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H322" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10542,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10568,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10594,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10620,7 +10626,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10646,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10672,7 +10678,7 @@
         <v>0.4</v>
       </c>
       <c r="H328" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10698,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10724,7 +10730,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10750,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10776,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10802,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10828,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10854,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10880,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10906,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10932,7 +10938,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H338" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10958,7 +10964,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H339" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10984,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11010,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11036,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11062,7 +11068,7 @@
         <v>0.5</v>
       </c>
       <c r="H343" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11088,7 +11094,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H344" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11114,7 +11120,7 @@
         <v>0.625</v>
       </c>
       <c r="H345" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11140,7 +11146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H346" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11166,7 +11172,7 @@
         <v>0.75</v>
       </c>
       <c r="H347" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11192,7 +11198,7 @@
         <v>0.7777777777777779</v>
       </c>
       <c r="H348" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11218,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11244,7 +11250,7 @@
         <v>0.75</v>
       </c>
       <c r="H350" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11270,7 +11276,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11296,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11322,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11348,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11374,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11400,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11426,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11452,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11478,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11504,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11530,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11556,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11582,7 +11588,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11608,7 +11614,7 @@
         <v>0.5625</v>
       </c>
       <c r="H364" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11634,7 +11640,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H365" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11660,7 +11666,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11686,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11712,7 +11718,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H368" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11738,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11764,7 +11770,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H370" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11790,7 +11796,7 @@
         <v>0.5</v>
       </c>
       <c r="H371" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11816,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11842,7 +11848,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H373" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11868,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11894,7 +11900,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11920,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11946,7 +11952,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H377" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11972,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11998,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12024,7 +12030,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H380" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12050,7 +12056,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H381" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12076,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12102,7 +12108,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H383" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12128,7 +12134,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H384" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12154,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12180,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12206,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12232,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12258,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12284,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12310,7 +12316,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H391" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12336,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12362,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12388,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12414,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12440,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12466,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12492,7 +12498,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H398" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12518,7 +12524,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H399" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12544,7 +12550,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H400" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12570,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12596,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12622,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12648,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12674,7 +12680,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H405" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12700,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12726,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12752,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12778,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12804,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12830,7 +12836,7 @@
         <v>0.5</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12856,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12882,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12908,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12934,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12960,7 +12966,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12986,7 +12992,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H417" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13012,7 +13018,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H418" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13038,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13064,7 +13070,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H420" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13090,7 +13096,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13116,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13142,7 +13148,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13168,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13194,7 +13200,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13220,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13246,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13272,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13298,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13324,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13350,7 +13356,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H431" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13376,7 +13382,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H432" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13402,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13428,7 +13434,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13454,7 +13460,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13480,7 +13486,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H436" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13506,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13532,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13558,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13584,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13610,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13636,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13662,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13688,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13714,7 +13720,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13740,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13766,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13792,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13818,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13844,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13870,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13896,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13922,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13948,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13974,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14000,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14026,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14052,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14078,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14104,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14130,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14156,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14182,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14208,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14234,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14260,7 +14266,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H466" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14286,7 +14292,7 @@
         <v>0.5</v>
       </c>
       <c r="H467" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14312,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14338,7 +14344,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14364,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14390,7 +14396,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14416,7 +14422,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14442,7 +14448,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H473" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14468,7 +14474,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H474" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14494,7 +14500,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H475" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14520,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14546,7 +14552,7 @@
         <v>0.3</v>
       </c>
       <c r="H477" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14572,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14598,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14624,7 +14630,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14650,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14676,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14702,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14728,7 +14734,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14754,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14780,7 +14786,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14806,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14832,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14858,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14884,7 +14890,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14910,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14936,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14962,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14988,7 +14994,7 @@
         <v>0.5</v>
       </c>
       <c r="H494" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15014,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15040,7 +15046,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15066,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15092,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15118,7 +15124,7 @@
         <v>0.5455</v>
       </c>
       <c r="H499" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15144,7 +15150,7 @@
         <v>0.5833</v>
       </c>
       <c r="H500" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15170,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15196,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15222,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15248,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15274,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15300,7 +15306,7 @@
         <v>0.6</v>
       </c>
       <c r="H506" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15326,7 +15332,7 @@
         <v>0.5455</v>
       </c>
       <c r="H507" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15352,7 +15358,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15378,7 +15384,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15404,7 +15410,7 @@
         <v>0.5</v>
       </c>
       <c r="H510" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15430,7 +15436,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15456,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15482,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15508,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15534,7 +15540,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15560,7 +15566,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15586,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15612,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15638,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15664,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15690,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15716,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15742,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15768,7 +15774,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15794,7 +15800,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15820,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15846,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15872,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15898,7 +15904,7 @@
         <v>0.5385</v>
       </c>
       <c r="H529" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15924,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15950,7 +15956,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15976,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16002,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16028,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16054,7 +16060,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16080,7 +16086,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16106,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16132,7 +16138,7 @@
         <v>0.5455</v>
       </c>
       <c r="H538" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16158,7 +16164,7 @@
         <v>0.5</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16184,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16210,7 +16216,7 @@
         <v>0.5</v>
       </c>
       <c r="H541" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16236,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16262,7 +16268,7 @@
         <v>0.5714</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16288,7 +16294,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16314,7 +16320,7 @@
         <v>0.4286</v>
       </c>
       <c r="H545" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16340,7 +16346,7 @@
         <v>0.3333</v>
       </c>
       <c r="H546" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16366,7 +16372,7 @@
         <v>0.2857</v>
       </c>
       <c r="H547" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16392,7 +16398,7 @@
         <v>0.375</v>
       </c>
       <c r="H548" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16418,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16444,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16470,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16496,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16522,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16548,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16574,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16600,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16626,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16652,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16678,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16704,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16730,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16756,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16782,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16792,9 +16798,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>0</v>
       </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
       <c r="F564">
         <v>1</v>
       </c>
@@ -16802,7 +16814,53 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
         <v>571</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVM.xlsx
+++ b/firebase_data_from_spyEnsembleVM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="599">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2150,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2202,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2228,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2254,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2280,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2306,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2332,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2358,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2384,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2410,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2436,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2462,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2488,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2514,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2540,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2566,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2592,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2618,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2644,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2670,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2722,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2748,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2774,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2800,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2826,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2852,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2878,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2904,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2930,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2956,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2982,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3008,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3034,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3060,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3086,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3112,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3138,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3164,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3190,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3216,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3242,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3268,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3294,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3320,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3346,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3372,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3398,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3424,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3450,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3476,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3502,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3528,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3554,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3580,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3606,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3632,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3658,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3684,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3710,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3736,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3762,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3788,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3814,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3840,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3866,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3892,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3918,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3944,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3970,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3996,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4022,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4048,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4074,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4100,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4126,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4152,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4178,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4204,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4230,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4256,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4282,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4308,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4334,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4360,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4386,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4412,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4438,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4464,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4516,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4542,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4568,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4594,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4620,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4646,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4672,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4698,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4724,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4750,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4776,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4802,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4828,7 +4846,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H103" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4854,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4880,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4906,7 +4924,7 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4932,7 +4950,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H107" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4958,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4984,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5010,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5036,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5062,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5088,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5114,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5140,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5166,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5192,7 +5210,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H117" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5218,7 +5236,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H118" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5244,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5270,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5296,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5322,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5348,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5374,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5400,7 +5418,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H125" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5426,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5452,7 +5470,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H127" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5478,7 +5496,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5504,7 +5522,7 @@
         <v>0.4</v>
       </c>
       <c r="H129" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5530,7 +5548,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H130" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5556,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5582,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5608,7 +5626,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H133" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5634,7 +5652,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H134" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5660,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5712,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5738,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5764,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5790,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5816,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5842,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5868,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5894,7 +5912,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H144" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5920,7 +5938,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H145" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5946,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5972,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5998,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6024,7 +6042,7 @@
         <v>0.5</v>
       </c>
       <c r="H149" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6050,7 +6068,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H150" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6076,7 +6094,7 @@
         <v>0.5</v>
       </c>
       <c r="H151" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6102,7 +6120,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H152" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6128,7 +6146,7 @@
         <v>0.4</v>
       </c>
       <c r="H153" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6154,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6180,7 +6198,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H155" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6206,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6232,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6258,7 +6276,7 @@
         <v>0.5</v>
       </c>
       <c r="H158" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6284,7 +6302,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H159" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6310,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6336,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6362,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6388,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6414,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6440,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6466,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6492,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6518,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6544,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6570,7 +6588,7 @@
         <v>0.5</v>
       </c>
       <c r="H170" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6596,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6622,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6648,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6674,7 +6692,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H174" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6700,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6726,7 +6744,7 @@
         <v>0.5</v>
       </c>
       <c r="H176" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6752,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6778,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6804,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6830,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6856,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6882,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6908,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6934,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6960,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6986,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7012,7 +7030,7 @@
         <v>0.5</v>
       </c>
       <c r="H187" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7038,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7064,7 +7082,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H189" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7090,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7116,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7142,7 +7160,7 @@
         <v>0.5</v>
       </c>
       <c r="H192" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7168,7 +7186,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H193" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7194,7 +7212,7 @@
         <v>0.5</v>
       </c>
       <c r="H194" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7220,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7246,7 +7264,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H196" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7272,7 +7290,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7298,7 +7316,7 @@
         <v>0.5</v>
       </c>
       <c r="H198" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7324,7 +7342,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H199" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7350,7 +7368,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H200" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7376,7 +7394,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H201" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7402,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7428,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7454,7 +7472,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H204" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7480,7 +7498,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H205" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7506,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7532,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7558,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7584,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7610,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7636,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7662,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7688,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7714,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7740,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7766,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7792,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7818,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7844,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7870,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7896,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7922,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7948,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7974,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8000,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8026,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8052,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8078,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8104,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8130,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8156,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8182,7 +8200,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H232" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8208,7 +8226,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H233" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8234,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8260,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8286,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8312,7 +8330,7 @@
         <v>0.5</v>
       </c>
       <c r="H237" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8338,7 +8356,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8364,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8390,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8416,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8442,7 +8460,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H242" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8468,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8494,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8520,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8546,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8572,7 +8590,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H247" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8598,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8624,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8650,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8676,7 +8694,7 @@
         <v>0.5</v>
       </c>
       <c r="H251" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8702,7 +8720,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H252" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8728,7 +8746,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H253" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8754,7 +8772,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H254" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8780,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8806,7 +8824,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H256" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8832,7 +8850,7 @@
         <v>0.5</v>
       </c>
       <c r="H257" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8858,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8884,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8910,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8936,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8962,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8988,7 +9006,7 @@
         <v>0.5</v>
       </c>
       <c r="H263" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9014,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9040,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9066,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9092,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9118,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9144,7 +9162,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H269" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9170,7 +9188,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H270" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9196,7 +9214,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H271" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9222,7 +9240,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H272" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9248,7 +9266,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H273" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9274,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9300,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9326,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9352,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9378,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9404,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9430,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9456,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9482,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9508,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9534,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9560,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9586,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9612,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9638,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9664,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9690,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9716,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9742,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9768,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9794,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9820,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9846,7 +9864,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H296" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9872,7 +9890,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H297" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9898,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9924,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9950,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9976,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10002,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10028,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10054,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10080,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10106,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10132,7 +10150,7 @@
         <v>0.5</v>
       </c>
       <c r="H307" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10158,7 +10176,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H308" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10184,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10210,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10236,7 +10254,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H311" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10262,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10288,7 +10306,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H313" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10314,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10340,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10366,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10392,7 +10410,7 @@
         <v>0.3</v>
       </c>
       <c r="H317" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10418,7 +10436,7 @@
         <v>0.4</v>
       </c>
       <c r="H318" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10444,7 +10462,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10470,7 +10488,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H320" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10496,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10522,7 +10540,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H322" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10548,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10574,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10600,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10626,7 +10644,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10652,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10678,7 +10696,7 @@
         <v>0.4</v>
       </c>
       <c r="H328" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10704,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10730,7 +10748,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10756,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10782,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10808,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10834,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10860,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10886,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10912,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10938,7 +10956,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H338" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10964,7 +10982,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H339" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10990,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11016,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11042,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11068,7 +11086,7 @@
         <v>0.5</v>
       </c>
       <c r="H343" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11094,7 +11112,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H344" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11120,7 +11138,7 @@
         <v>0.625</v>
       </c>
       <c r="H345" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11146,7 +11164,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H346" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11172,7 +11190,7 @@
         <v>0.75</v>
       </c>
       <c r="H347" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11198,7 +11216,7 @@
         <v>0.7777777777777779</v>
       </c>
       <c r="H348" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11224,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11250,7 +11268,7 @@
         <v>0.75</v>
       </c>
       <c r="H350" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11276,7 +11294,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11302,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11328,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11354,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11380,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11406,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11432,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11458,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11484,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11510,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11536,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11562,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11588,7 +11606,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11614,7 +11632,7 @@
         <v>0.5625</v>
       </c>
       <c r="H364" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11640,7 +11658,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H365" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11666,7 +11684,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11692,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11718,7 +11736,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H368" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11744,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11770,7 +11788,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H370" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11796,7 +11814,7 @@
         <v>0.5</v>
       </c>
       <c r="H371" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11822,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11848,7 +11866,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H373" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11874,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11900,7 +11918,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11926,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11952,7 +11970,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H377" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11978,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12004,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12030,7 +12048,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H380" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12056,7 +12074,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H381" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12082,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12108,7 +12126,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H383" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12134,7 +12152,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H384" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12160,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12186,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12212,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12238,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12264,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12290,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12316,7 +12334,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H391" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12342,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12368,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12394,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12420,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12446,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12472,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12498,7 +12516,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H398" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12524,7 +12542,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H399" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12550,7 +12568,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H400" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12576,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12602,7 +12620,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12628,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12654,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12680,7 +12698,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H405" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12706,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12732,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12758,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12784,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12810,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12836,7 +12854,7 @@
         <v>0.5</v>
       </c>
       <c r="H411" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12862,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12888,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12914,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12940,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12966,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12992,7 +13010,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H417" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13018,7 +13036,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H418" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13044,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13070,7 +13088,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H420" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13096,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13122,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13148,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13174,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13200,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13226,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13252,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13278,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13304,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13330,7 +13348,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13356,7 +13374,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H431" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13382,7 +13400,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H432" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13408,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13434,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13460,7 +13478,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13486,7 +13504,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H436" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13512,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13538,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13564,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13590,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13616,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13642,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13668,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13694,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13720,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13746,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13772,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13798,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13824,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13850,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13876,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13902,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13928,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13954,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13980,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14006,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14032,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14058,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14084,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14110,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14136,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14162,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14188,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14214,7 +14232,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14240,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14266,7 +14284,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H466" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14292,7 +14310,7 @@
         <v>0.5</v>
       </c>
       <c r="H467" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14318,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14344,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14370,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14396,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14422,7 +14440,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14448,7 +14466,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H473" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14474,7 +14492,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H474" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14500,7 +14518,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H475" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14526,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14552,7 +14570,7 @@
         <v>0.3</v>
       </c>
       <c r="H477" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14578,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14604,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14630,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14656,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14682,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14708,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14734,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14760,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14786,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14812,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14838,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14864,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14890,7 +14908,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14916,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14942,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14968,7 +14986,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14994,7 +15012,7 @@
         <v>0.5</v>
       </c>
       <c r="H494" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15020,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15046,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15072,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15098,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15124,7 +15142,7 @@
         <v>0.5455</v>
       </c>
       <c r="H499" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15150,7 +15168,7 @@
         <v>0.5833</v>
       </c>
       <c r="H500" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15176,7 +15194,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15202,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15228,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15254,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15280,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15306,7 +15324,7 @@
         <v>0.6</v>
       </c>
       <c r="H506" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15332,7 +15350,7 @@
         <v>0.5455</v>
       </c>
       <c r="H507" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15358,7 +15376,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15384,7 +15402,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15410,7 +15428,7 @@
         <v>0.5</v>
       </c>
       <c r="H510" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15436,7 +15454,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15462,7 +15480,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15488,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15514,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15540,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15566,7 +15584,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15592,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15618,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15644,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15670,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15696,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15722,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15748,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15774,7 +15792,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15800,7 +15818,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15826,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15852,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15878,7 +15896,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15904,7 +15922,7 @@
         <v>0.5385</v>
       </c>
       <c r="H529" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15930,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15956,7 +15974,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15982,7 +16000,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16008,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16034,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16060,7 +16078,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16086,7 +16104,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16112,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16138,7 +16156,7 @@
         <v>0.5455</v>
       </c>
       <c r="H538" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16164,7 +16182,7 @@
         <v>0.5</v>
       </c>
       <c r="H539" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16190,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16216,7 +16234,7 @@
         <v>0.5</v>
       </c>
       <c r="H541" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16242,7 +16260,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16268,7 +16286,7 @@
         <v>0.5714</v>
       </c>
       <c r="H543" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16294,7 +16312,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16320,7 +16338,7 @@
         <v>0.4286</v>
       </c>
       <c r="H545" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16346,7 +16364,7 @@
         <v>0.3333</v>
       </c>
       <c r="H546" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16372,7 +16390,7 @@
         <v>0.2857</v>
       </c>
       <c r="H547" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16398,7 +16416,7 @@
         <v>0.375</v>
       </c>
       <c r="H548" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16424,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16450,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16476,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16502,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16528,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16554,7 +16572,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16580,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16606,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16632,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16658,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16684,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16710,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16736,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16762,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16788,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16814,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16840,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16850,9 +16868,15 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>1</v>
       </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
       <c r="F566">
         <v>0</v>
       </c>
@@ -16860,7 +16884,157 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
         <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>1</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVM.xlsx
+++ b/firebase_data_from_spyEnsembleVM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="601">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2168,7 +2174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2220,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2246,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2272,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2350,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2402,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2454,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2506,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2532,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2558,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2584,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2610,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2636,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2662,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2688,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2714,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2740,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2766,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2792,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2818,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2844,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2896,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2922,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2948,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2974,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3000,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3026,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3052,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3078,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3104,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3130,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3156,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3182,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3208,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3234,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3260,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3286,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3312,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3338,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3364,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3390,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3416,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3468,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3494,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3520,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3546,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3572,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3598,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3624,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3650,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3676,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3702,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3728,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3754,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3780,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3806,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3832,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3858,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3884,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3910,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3936,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3962,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3988,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4014,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4040,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4066,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4092,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4118,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4144,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4170,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4196,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4222,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4248,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4274,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4300,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4326,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4352,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4378,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4404,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4430,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4456,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4482,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4508,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4534,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4560,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4586,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4612,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4638,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4664,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4690,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4716,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4742,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4768,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4794,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4820,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4846,7 +4852,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H103" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4872,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4898,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4924,7 +4930,7 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4950,7 +4956,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H107" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4976,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5002,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5028,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5054,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5080,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5106,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5132,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5158,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5184,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5210,7 +5216,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H117" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5236,7 +5242,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H118" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5262,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5288,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5314,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5340,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5366,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5392,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5418,7 +5424,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H125" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5444,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5470,7 +5476,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H127" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5496,7 +5502,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H128" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5522,7 +5528,7 @@
         <v>0.4</v>
       </c>
       <c r="H129" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5548,7 +5554,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H130" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5574,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5600,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5626,7 +5632,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H133" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5652,7 +5658,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H134" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5678,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5704,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5730,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5756,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5782,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5808,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5834,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5860,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5886,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5912,7 +5918,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H144" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5938,7 +5944,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H145" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5964,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5990,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6016,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6042,7 +6048,7 @@
         <v>0.5</v>
       </c>
       <c r="H149" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6068,7 +6074,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H150" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6094,7 +6100,7 @@
         <v>0.5</v>
       </c>
       <c r="H151" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6120,7 +6126,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H152" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6146,7 +6152,7 @@
         <v>0.4</v>
       </c>
       <c r="H153" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6172,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6198,7 +6204,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H155" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6224,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6250,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6276,7 +6282,7 @@
         <v>0.5</v>
       </c>
       <c r="H158" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6302,7 +6308,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H159" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6328,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6354,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6380,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6406,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6432,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6458,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6484,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6510,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6536,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6562,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6588,7 +6594,7 @@
         <v>0.5</v>
       </c>
       <c r="H170" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6614,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6640,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6666,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6692,7 +6698,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H174" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6718,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6744,7 +6750,7 @@
         <v>0.5</v>
       </c>
       <c r="H176" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6770,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6796,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6822,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6848,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6874,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6900,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6926,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6952,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6978,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7004,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7030,7 +7036,7 @@
         <v>0.5</v>
       </c>
       <c r="H187" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7056,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7082,7 +7088,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H189" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7108,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7134,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7160,7 +7166,7 @@
         <v>0.5</v>
       </c>
       <c r="H192" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7186,7 +7192,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H193" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7212,7 +7218,7 @@
         <v>0.5</v>
       </c>
       <c r="H194" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7238,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7264,7 +7270,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H196" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7290,7 +7296,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7316,7 +7322,7 @@
         <v>0.5</v>
       </c>
       <c r="H198" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7342,7 +7348,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H199" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7368,7 +7374,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H200" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7394,7 +7400,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H201" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7420,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7446,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7472,7 +7478,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H204" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7498,7 +7504,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H205" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7524,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7550,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7576,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7602,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7628,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7654,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7680,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7706,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7732,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7758,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7784,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7810,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7836,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7862,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7888,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7914,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7940,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7966,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7992,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8018,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8044,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8070,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8096,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8122,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8148,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8174,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8200,7 +8206,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H232" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8226,7 +8232,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H233" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8252,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8278,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8304,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8330,7 +8336,7 @@
         <v>0.5</v>
       </c>
       <c r="H237" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8356,7 +8362,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H238" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8382,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8408,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8434,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8460,7 +8466,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H242" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8486,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8512,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8538,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8564,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8590,7 +8596,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H247" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8616,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8642,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8668,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8694,7 +8700,7 @@
         <v>0.5</v>
       </c>
       <c r="H251" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8720,7 +8726,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H252" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8746,7 +8752,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H253" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8772,7 +8778,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H254" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8798,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8824,7 +8830,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H256" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8850,7 +8856,7 @@
         <v>0.5</v>
       </c>
       <c r="H257" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8876,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8902,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8928,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8954,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8980,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9006,7 +9012,7 @@
         <v>0.5</v>
       </c>
       <c r="H263" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9032,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9058,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9084,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9110,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9136,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9162,7 +9168,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H269" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9188,7 +9194,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H270" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9214,7 +9220,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H271" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9240,7 +9246,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H272" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9266,7 +9272,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H273" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9292,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9318,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9344,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9370,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9396,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9422,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9448,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9474,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9500,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9526,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9552,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9578,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9604,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9630,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9656,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9682,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9708,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9734,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9760,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9786,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9812,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9838,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9864,7 +9870,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H296" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9890,7 +9896,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H297" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9916,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9942,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9968,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9994,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10020,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10046,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10072,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10098,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10124,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10150,7 +10156,7 @@
         <v>0.5</v>
       </c>
       <c r="H307" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10176,7 +10182,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H308" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10202,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10228,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10254,7 +10260,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H311" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10280,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10306,7 +10312,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H313" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10332,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10358,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10384,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10410,7 +10416,7 @@
         <v>0.3</v>
       </c>
       <c r="H317" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10436,7 +10442,7 @@
         <v>0.4</v>
       </c>
       <c r="H318" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10462,7 +10468,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10488,7 +10494,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H320" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10514,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10540,7 +10546,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H322" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10566,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10592,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10618,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10644,7 +10650,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10670,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10696,7 +10702,7 @@
         <v>0.4</v>
       </c>
       <c r="H328" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10722,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10748,7 +10754,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10774,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10800,7 +10806,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10826,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10852,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10878,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10904,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10930,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10956,7 +10962,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H338" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10982,7 +10988,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H339" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11008,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11034,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11060,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11086,7 +11092,7 @@
         <v>0.5</v>
       </c>
       <c r="H343" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11112,7 +11118,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H344" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11138,7 +11144,7 @@
         <v>0.625</v>
       </c>
       <c r="H345" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11164,7 +11170,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H346" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11190,7 +11196,7 @@
         <v>0.75</v>
       </c>
       <c r="H347" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11216,7 +11222,7 @@
         <v>0.7777777777777779</v>
       </c>
       <c r="H348" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11242,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11268,7 +11274,7 @@
         <v>0.75</v>
       </c>
       <c r="H350" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11294,7 +11300,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11320,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11346,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11372,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11398,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11424,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11450,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11476,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11502,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11528,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11554,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11580,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11606,7 +11612,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11632,7 +11638,7 @@
         <v>0.5625</v>
       </c>
       <c r="H364" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11658,7 +11664,7 @@
         <v>0.4374999999999998</v>
       </c>
       <c r="H365" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11684,7 +11690,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11710,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11736,7 +11742,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H368" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11762,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11788,7 +11794,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H370" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11814,7 +11820,7 @@
         <v>0.5</v>
       </c>
       <c r="H371" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11840,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11866,7 +11872,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H373" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11892,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11918,7 +11924,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11944,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11970,7 +11976,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H377" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11996,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12022,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12048,7 +12054,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H380" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12074,7 +12080,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H381" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12100,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12126,7 +12132,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H383" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12152,7 +12158,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H384" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12178,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12204,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12230,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12256,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12282,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12308,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12334,7 +12340,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H391" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12360,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12386,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12412,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12438,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12464,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12490,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12516,7 +12522,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H398" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12542,7 +12548,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H399" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12568,7 +12574,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H400" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12594,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12620,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12646,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12672,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12698,7 +12704,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H405" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12724,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12750,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12776,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12802,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12828,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12854,7 +12860,7 @@
         <v>0.5</v>
       </c>
       <c r="H411" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12880,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12906,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12932,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12958,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12984,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13010,7 +13016,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="H417" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13036,7 +13042,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H418" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13062,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13088,7 +13094,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H420" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13114,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13140,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13166,7 +13172,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13192,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13218,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13244,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13270,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13296,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13322,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13348,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13374,7 +13380,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H431" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13400,7 +13406,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H432" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13426,7 +13432,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13452,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13478,7 +13484,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13504,7 +13510,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H436" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13530,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13556,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13582,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13608,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13634,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13660,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13686,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13712,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13738,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13764,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13790,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13816,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13842,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13868,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13894,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13920,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13946,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13972,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13998,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14024,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14050,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14076,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14102,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14128,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14154,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14180,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14206,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14232,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14258,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14284,7 +14290,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H466" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14310,7 +14316,7 @@
         <v>0.5</v>
       </c>
       <c r="H467" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14336,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14362,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14388,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14414,7 +14420,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14440,7 +14446,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14466,7 +14472,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="H473" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14492,7 +14498,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H474" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14518,7 +14524,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H475" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14544,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14570,7 +14576,7 @@
         <v>0.3</v>
       </c>
       <c r="H477" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14596,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14622,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14648,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14674,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14700,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14726,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14752,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14778,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14804,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14830,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14856,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14882,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14908,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14934,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14960,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14986,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15012,7 +15018,7 @@
         <v>0.5</v>
       </c>
       <c r="H494" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15038,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15064,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15090,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15116,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15142,7 +15148,7 @@
         <v>0.5455</v>
       </c>
       <c r="H499" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15168,7 +15174,7 @@
         <v>0.5833</v>
       </c>
       <c r="H500" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15194,7 +15200,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15220,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15246,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15272,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15298,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15324,7 +15330,7 @@
         <v>0.6</v>
       </c>
       <c r="H506" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15350,7 +15356,7 @@
         <v>0.5455</v>
       </c>
       <c r="H507" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15376,7 +15382,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15402,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15428,7 +15434,7 @@
         <v>0.5</v>
       </c>
       <c r="H510" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15454,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15480,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15506,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15532,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15558,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15584,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15610,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15636,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15662,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15688,7 +15694,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15714,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15740,7 +15746,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15766,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15792,7 +15798,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15818,7 +15824,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15844,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15870,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15896,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15922,7 +15928,7 @@
         <v>0.5385</v>
       </c>
       <c r="H529" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15948,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15974,7 +15980,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16000,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16026,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16052,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16078,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16104,7 +16110,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16130,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16156,7 +16162,7 @@
         <v>0.5455</v>
       </c>
       <c r="H538" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16182,7 +16188,7 @@
         <v>0.5</v>
       </c>
       <c r="H539" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16208,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16234,7 +16240,7 @@
         <v>0.5</v>
       </c>
       <c r="H541" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16260,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16286,7 +16292,7 @@
         <v>0.5714</v>
       </c>
       <c r="H543" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16312,7 +16318,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16338,7 +16344,7 @@
         <v>0.4286</v>
       </c>
       <c r="H545" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16364,7 +16370,7 @@
         <v>0.3333</v>
       </c>
       <c r="H546" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16390,7 +16396,7 @@
         <v>0.2857</v>
       </c>
       <c r="H547" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16416,7 +16422,7 @@
         <v>0.375</v>
       </c>
       <c r="H548" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16442,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16468,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16494,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16520,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16546,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16572,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16598,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16624,7 +16630,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16650,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16676,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16702,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16728,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16754,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16780,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16806,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16832,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16858,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16884,7 +16890,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16910,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16936,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16962,7 +16968,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16988,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17014,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17024,9 +17030,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>1</v>
       </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
       <c r="F572">
         <v>0</v>
       </c>
@@ -17034,7 +17046,53 @@
         <v>1</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
